--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2934193.667438374</v>
+        <v>2935954.197741159</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8647212.129699115</v>
+        <v>8647212.129699117</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="C2" t="n">
         <v>18.28182508062843</v>
       </c>
       <c r="D2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>50.48273419507654</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="T2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -746,64 +746,64 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="V3" t="n">
+        <v>50.48273419507654</v>
+      </c>
+      <c r="W3" t="n">
+        <v>50.48273419507654</v>
+      </c>
+      <c r="X3" t="n">
         <v>44.46519227902342</v>
-      </c>
-      <c r="I3" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>8.386866521745219</v>
       </c>
       <c r="F4" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>8.386866521745247</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D5" t="n">
-        <v>25.34580260830151</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>47.38379687733242</v>
       </c>
       <c r="G5" t="n">
-        <v>15.16194852731947</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="D6" t="n">
         <v>53.79631798062264</v>
@@ -986,13 +986,13 @@
         <v>53.79631798062264</v>
       </c>
       <c r="F6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>47.38379687733242</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>47.3837968773324</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>52.60630734092062</v>
       </c>
       <c r="E7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.60630734092059</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="G8" t="n">
         <v>13.80371436173802</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>55.70610478157332</v>
+        <v>55.70610478157356</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>170.1331892653144</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>80.34349396157702</v>
       </c>
       <c r="W8" t="n">
-        <v>73.4674482198661</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="X8" t="n">
-        <v>170.1331892653144</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="Y8" t="n">
-        <v>170.1331892653144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.96033322209421</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>170.1331892653144</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>75.26264403759528</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>61.78225762642488</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>50.36049712271175</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.67871628333129</v>
+        <v>22.67871628332994</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.85685983116009</v>
+        <v>29.85685983116024</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>186.9166231085223</v>
+        <v>164.8280908524515</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>172.0260335000785</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>141.6930519056957</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>135.3286065175526</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812101</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>102.1557845699813</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>9.146142788180326</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>64.80049431059781</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881284</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611381</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>6.600826611595825</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>25.52471385612597</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>129.5380597272477</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>164.9367233701407</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>20.92847288552941</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>68.17501931583868</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>189.7822042251785</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>14.73874327217517</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>97.02629574295587</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>105.6507867899578</v>
       </c>
       <c r="U46" t="n">
-        <v>239.7247859410132</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.94561517409093</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="C2" t="n">
-        <v>81.47912519365818</v>
+        <v>30.48646439055056</v>
       </c>
       <c r="D2" t="n">
         <v>30.48646439055056</v>
@@ -4333,13 +4333,13 @@
         <v>4.038618735606123</v>
       </c>
       <c r="K2" t="n">
-        <v>4.038618735606123</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="L2" t="n">
-        <v>4.038618735606123</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="M2" t="n">
-        <v>54.01652558873189</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="N2" t="n">
         <v>101.9751230740546</v>
@@ -4357,7 +4357,7 @@
         <v>150.9382759771985</v>
       </c>
       <c r="S2" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="T2" t="n">
         <v>99.94561517409093</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.9382759771985</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="C3" t="n">
-        <v>150.9382759771985</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="D3" t="n">
-        <v>150.9382759771985</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="E3" t="n">
-        <v>99.94561517409093</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="F3" t="n">
-        <v>99.94561517409093</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="G3" t="n">
-        <v>99.94561517409093</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I3" t="n">
         <v>4.038618735606123</v>
@@ -4412,10 +4412,10 @@
         <v>4.038618735606123</v>
       </c>
       <c r="K3" t="n">
-        <v>54.01652558873189</v>
+        <v>51.99721622092883</v>
       </c>
       <c r="L3" t="n">
-        <v>54.01652558873189</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="M3" t="n">
         <v>101.9751230740546</v>
@@ -4424,7 +4424,7 @@
         <v>151.9530299271804</v>
       </c>
       <c r="O3" t="n">
-        <v>151.9530299271804</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="P3" t="n">
         <v>201.9309367803062</v>
@@ -4436,25 +4436,25 @@
         <v>201.9309367803062</v>
       </c>
       <c r="S3" t="n">
-        <v>150.9382759771985</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="T3" t="n">
-        <v>150.9382759771985</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="U3" t="n">
         <v>150.9382759771985</v>
       </c>
       <c r="V3" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="W3" t="n">
-        <v>150.9382759771985</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="X3" t="n">
-        <v>150.9382759771985</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="Y3" t="n">
-        <v>150.9382759771985</v>
+        <v>4.038618735606123</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.4740328288937</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="C4" t="n">
-        <v>91.4740328288937</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="D4" t="n">
-        <v>91.4740328288937</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="E4" t="n">
-        <v>91.4740328288937</v>
+        <v>157.016601144929</v>
       </c>
       <c r="F4" t="n">
-        <v>40.48137202578608</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="G4" t="n">
-        <v>40.48137202578608</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="H4" t="n">
-        <v>40.48137202578608</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="I4" t="n">
-        <v>40.48137202578608</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="J4" t="n">
-        <v>40.48137202578608</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="K4" t="n">
-        <v>40.48137202578608</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="L4" t="n">
-        <v>73.9036487032557</v>
+        <v>37.46089541307574</v>
       </c>
       <c r="M4" t="n">
-        <v>119.5318764051767</v>
+        <v>83.0891231149967</v>
       </c>
       <c r="N4" t="n">
-        <v>169.5097832583024</v>
+        <v>133.0670299681225</v>
       </c>
       <c r="O4" t="n">
-        <v>199.656173881301</v>
+        <v>163.2134205911211</v>
       </c>
       <c r="P4" t="n">
-        <v>201.9309367803062</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="Q4" t="n">
-        <v>201.9309367803062</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="R4" t="n">
-        <v>201.9309367803062</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="S4" t="n">
-        <v>193.4593544351089</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="T4" t="n">
-        <v>193.4593544351089</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="U4" t="n">
-        <v>193.4593544351089</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="V4" t="n">
-        <v>193.4593544351089</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="W4" t="n">
-        <v>142.4666936320013</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="X4" t="n">
-        <v>142.4666936320013</v>
+        <v>165.4881834901262</v>
       </c>
       <c r="Y4" t="n">
-        <v>142.4666936320013</v>
+        <v>165.4881834901262</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>215.1852719224906</v>
+      </c>
+      <c r="C5" t="n">
         <v>160.8455567905485</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
+        <v>160.8455567905485</v>
+      </c>
+      <c r="E5" t="n">
         <v>106.5058416586064</v>
       </c>
-      <c r="D5" t="n">
-        <v>80.90402084214027</v>
-      </c>
-      <c r="E5" t="n">
-        <v>80.90402084214027</v>
-      </c>
       <c r="F5" t="n">
-        <v>73.95852009293679</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="G5" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="H5" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="I5" t="n">
         <v>4.303705438449811</v>
@@ -4570,19 +4570,19 @@
         <v>4.303705438449811</v>
       </c>
       <c r="K5" t="n">
-        <v>4.303705438449811</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="L5" t="n">
         <v>57.56206023926622</v>
       </c>
       <c r="M5" t="n">
-        <v>110.8204150400826</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="N5" t="n">
-        <v>164.078769840899</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="O5" t="n">
-        <v>215.1852719224906</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="P5" t="n">
         <v>215.1852719224906</v>
@@ -4591,28 +4591,28 @@
         <v>215.1852719224906</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="S5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="T5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="U5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="V5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="W5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="X5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="Y5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.322850834276</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="C6" t="n">
-        <v>167.322850834276</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="D6" t="n">
-        <v>112.9831357023339</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="E6" t="n">
-        <v>58.64342057039187</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="F6" t="n">
-        <v>4.303705438449811</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="G6" t="n">
-        <v>4.303705438449811</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="H6" t="n">
         <v>4.303705438449811</v>
@@ -4655,16 +4655,16 @@
         <v>63.86868055626314</v>
       </c>
       <c r="M6" t="n">
-        <v>63.86868055626314</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="N6" t="n">
-        <v>63.86868055626314</v>
+        <v>161.9269171216741</v>
       </c>
       <c r="O6" t="n">
-        <v>108.6685623208577</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="P6" t="n">
-        <v>161.9269171216741</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="Q6" t="n">
         <v>215.1852719224906</v>
@@ -4688,10 +4688,10 @@
         <v>215.1852719224906</v>
       </c>
       <c r="X6" t="n">
-        <v>167.322850834276</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="Y6" t="n">
-        <v>167.322850834276</v>
+        <v>215.1852719224906</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.72650203070704</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="C7" t="n">
-        <v>73.72650203070704</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="D7" t="n">
-        <v>73.72650203070704</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="E7" t="n">
         <v>19.38678689876497</v>
@@ -4746,31 +4746,31 @@
         <v>181.2039013453972</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.0662171626491</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="R7" t="n">
-        <v>128.0662171626491</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="S7" t="n">
-        <v>73.72650203070704</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="T7" t="n">
-        <v>73.72650203070704</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="U7" t="n">
-        <v>73.72650203070704</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="V7" t="n">
-        <v>73.72650203070704</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="W7" t="n">
-        <v>73.72650203070704</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="X7" t="n">
-        <v>73.72650203070704</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="Y7" t="n">
-        <v>73.72650203070704</v>
+        <v>181.2039013453972</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.49930171036601</v>
+        <v>199.4055072897626</v>
       </c>
       <c r="C8" t="n">
-        <v>34.49930171036601</v>
+        <v>199.4055072897626</v>
       </c>
       <c r="D8" t="n">
-        <v>34.49930171036601</v>
+        <v>199.4055072897626</v>
       </c>
       <c r="E8" t="n">
-        <v>34.49930171036601</v>
+        <v>199.4055072897626</v>
       </c>
       <c r="F8" t="n">
-        <v>27.55380096116254</v>
+        <v>27.55380096116252</v>
       </c>
       <c r="G8" t="n">
-        <v>13.61065514122515</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="H8" t="n">
-        <v>13.61065514122515</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="I8" t="n">
-        <v>13.61065514122515</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="J8" t="n">
-        <v>127.7362978821339</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="K8" t="n">
-        <v>127.7362978821339</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="L8" t="n">
-        <v>128.5190723787517</v>
+        <v>182.042512513886</v>
       </c>
       <c r="M8" t="n">
-        <v>161.0594972748391</v>
+        <v>214.5829374099728</v>
       </c>
       <c r="N8" t="n">
-        <v>198.740268644545</v>
+        <v>252.2637087796779</v>
       </c>
       <c r="O8" t="n">
-        <v>361.7328317201559</v>
+        <v>361.7328317201553</v>
       </c>
       <c r="P8" t="n">
-        <v>530.1646890928172</v>
+        <v>530.1646890928163</v>
       </c>
       <c r="Q8" t="n">
-        <v>680.5327570612576</v>
+        <v>680.5327570612562</v>
       </c>
       <c r="R8" t="n">
-        <v>624.2639643525977</v>
+        <v>624.2639643525961</v>
       </c>
       <c r="S8" t="n">
-        <v>624.2639643525977</v>
+        <v>624.2639643525961</v>
       </c>
       <c r="T8" t="n">
-        <v>624.2639643525977</v>
+        <v>624.2639643525961</v>
       </c>
       <c r="U8" t="n">
-        <v>452.4122580239973</v>
+        <v>624.2639643525961</v>
       </c>
       <c r="V8" t="n">
-        <v>452.4122580239973</v>
+        <v>543.1089199469627</v>
       </c>
       <c r="W8" t="n">
-        <v>378.2027143675668</v>
+        <v>371.2572136183627</v>
       </c>
       <c r="X8" t="n">
-        <v>206.3510080389664</v>
+        <v>199.4055072897626</v>
       </c>
       <c r="Y8" t="n">
-        <v>34.49930171036601</v>
+        <v>199.4055072897626</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>640.1687841096473</v>
+        <v>457.811861719816</v>
       </c>
       <c r="C9" t="n">
-        <v>468.3170777810469</v>
+        <v>457.811861719816</v>
       </c>
       <c r="D9" t="n">
-        <v>319.3826681197957</v>
+        <v>381.7889889545683</v>
       </c>
       <c r="E9" t="n">
-        <v>160.1452131143402</v>
+        <v>222.5515339491128</v>
       </c>
       <c r="F9" t="n">
-        <v>13.61065514122515</v>
+        <v>76.01697597599774</v>
       </c>
       <c r="G9" t="n">
-        <v>13.61065514122515</v>
+        <v>76.01697597599774</v>
       </c>
       <c r="H9" t="n">
-        <v>13.61065514122515</v>
+        <v>76.01697597599774</v>
       </c>
       <c r="I9" t="n">
-        <v>13.61065514122515</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="J9" t="n">
-        <v>87.88972643578404</v>
+        <v>87.88972643578383</v>
       </c>
       <c r="K9" t="n">
-        <v>256.3215838084453</v>
+        <v>256.3215838084448</v>
       </c>
       <c r="L9" t="n">
-        <v>291.5577349675179</v>
+        <v>291.5577349675169</v>
       </c>
       <c r="M9" t="n">
-        <v>459.9895923401791</v>
+        <v>352.0335295605412</v>
       </c>
       <c r="N9" t="n">
-        <v>536.4746461804856</v>
+        <v>428.5185834008472</v>
       </c>
       <c r="O9" t="n">
-        <v>584.2237326775233</v>
+        <v>493.111114384175</v>
       </c>
       <c r="P9" t="n">
-        <v>680.5327570612576</v>
+        <v>512.1008996885953</v>
       </c>
       <c r="Q9" t="n">
-        <v>680.5327570612576</v>
+        <v>680.5327570612562</v>
       </c>
       <c r="R9" t="n">
-        <v>680.5327570612576</v>
+        <v>629.6635680484161</v>
       </c>
       <c r="S9" t="n">
-        <v>680.5327570612576</v>
+        <v>629.6635680484161</v>
       </c>
       <c r="T9" t="n">
-        <v>680.5327570612576</v>
+        <v>629.6635680484161</v>
       </c>
       <c r="U9" t="n">
-        <v>680.5327570612576</v>
+        <v>457.811861719816</v>
       </c>
       <c r="V9" t="n">
-        <v>680.5327570612576</v>
+        <v>457.811861719816</v>
       </c>
       <c r="W9" t="n">
-        <v>680.5327570612576</v>
+        <v>457.811861719816</v>
       </c>
       <c r="X9" t="n">
-        <v>680.5327570612576</v>
+        <v>457.811861719816</v>
       </c>
       <c r="Y9" t="n">
-        <v>680.5327570612576</v>
+        <v>457.811861719816</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>627.4665185617713</v>
+        <v>627.4665185617712</v>
       </c>
       <c r="C10" t="n">
-        <v>458.5303356338644</v>
+        <v>458.5303356338643</v>
       </c>
       <c r="D10" t="n">
-        <v>308.4136962215287</v>
+        <v>308.4136962215286</v>
       </c>
       <c r="E10" t="n">
         <v>160.5006026391355</v>
       </c>
       <c r="F10" t="n">
-        <v>13.61065514122515</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="G10" t="n">
-        <v>13.61065514122515</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="H10" t="n">
-        <v>13.61065514122515</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="I10" t="n">
-        <v>13.61065514122515</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="J10" t="n">
-        <v>13.61065514122515</v>
+        <v>13.61065514122513</v>
       </c>
       <c r="K10" t="n">
-        <v>68.90447724058015</v>
+        <v>68.90447724057987</v>
       </c>
       <c r="L10" t="n">
-        <v>195.1879671340627</v>
+        <v>195.1879671340623</v>
       </c>
       <c r="M10" t="n">
-        <v>338.7253240694257</v>
+        <v>338.725324069425</v>
       </c>
       <c r="N10" t="n">
-        <v>484.2842999004863</v>
+        <v>484.2842999004854</v>
       </c>
       <c r="O10" t="n">
-        <v>602.7152779689153</v>
+        <v>602.7152779689142</v>
       </c>
       <c r="P10" t="n">
-        <v>680.5327570612576</v>
+        <v>680.5327570612562</v>
       </c>
       <c r="Q10" t="n">
-        <v>650.3743127873585</v>
+        <v>650.374312787357</v>
       </c>
       <c r="R10" t="n">
-        <v>650.3743127873585</v>
+        <v>650.374312787357</v>
       </c>
       <c r="S10" t="n">
-        <v>650.3743127873585</v>
+        <v>650.374312787357</v>
       </c>
       <c r="T10" t="n">
-        <v>650.3743127873585</v>
+        <v>650.374312787357</v>
       </c>
       <c r="U10" t="n">
-        <v>650.3743127873585</v>
+        <v>650.374312787357</v>
       </c>
       <c r="V10" t="n">
-        <v>650.3743127873585</v>
+        <v>650.374312787357</v>
       </c>
       <c r="W10" t="n">
-        <v>650.3743127873585</v>
+        <v>650.374312787357</v>
       </c>
       <c r="X10" t="n">
-        <v>650.3743127873585</v>
+        <v>650.374312787357</v>
       </c>
       <c r="Y10" t="n">
-        <v>650.3743127873585</v>
+        <v>650.374312787357</v>
       </c>
     </row>
     <row r="11">
@@ -5029,7 +5029,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5044,7 +5044,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1878.013763195024</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,13 +5266,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5284,13 +5284,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5311,7 +5311,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,31 +5512,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>779.6143379232838</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2243.221817693721</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2243.221817693721</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1954.146591037919</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1699.462102832032</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1410.044932795071</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1182.055381897054</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>961.2628027535235</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,55 +5740,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797142</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192565</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>197.0043242297712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>197.0043242297712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>197.0043242297712</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6031,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L24" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V25" t="n">
-        <v>1689.976512844124</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W25" t="n">
-        <v>1400.559342807163</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X25" t="n">
-        <v>1172.569791909146</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y25" t="n">
-        <v>951.777212765616</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="26">
@@ -6220,40 +6220,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6299,22 +6299,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
         <v>2001.151557821488</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>734.6461798836023</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>565.7099969556954</v>
       </c>
       <c r="D31" t="n">
-        <v>414.4022433768874</v>
+        <v>415.5933575433596</v>
       </c>
       <c r="E31" t="n">
-        <v>266.4891497944943</v>
+        <v>267.6802639609665</v>
       </c>
       <c r="F31" t="n">
-        <v>119.599202296584</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>916.294644713842</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5477693179085</v>
+        <v>803.2707707770328</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5477693179085</v>
+        <v>634.3345878491259</v>
       </c>
       <c r="D34" t="n">
-        <v>762.5477693179085</v>
+        <v>484.2179484367902</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>484.2179484367902</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.2179484367902</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750803</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>984.9192356072725</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>484.8243144841084</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>980.1499206998673</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="38">
@@ -7162,49 +7162,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>576.8388927589092</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C40" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>244.7670222746428</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V40" t="n">
-        <v>1496.686657667657</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W40" t="n">
-        <v>1207.269487630696</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X40" t="n">
-        <v>979.2799367326791</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y40" t="n">
-        <v>758.4873575891489</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="41">
@@ -7405,19 +7405,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7429,13 +7429,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492579</v>
@@ -7444,7 +7444,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L42" t="n">
-        <v>913.2907898187001</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.8431516380886</v>
+        <v>800.5007694647286</v>
       </c>
       <c r="C43" t="n">
-        <v>572.9069687101817</v>
+        <v>631.5645865368217</v>
       </c>
       <c r="D43" t="n">
-        <v>422.7903292978459</v>
+        <v>481.4479471244859</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>333.5348535420928</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>333.5348535420928</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336516</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683283</v>
+        <v>982.1492342949683</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7666,22 +7666,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>208.3214547517356</v>
+        <v>258.8041889468121</v>
       </c>
       <c r="L2" t="n">
-        <v>221.1666787354324</v>
+        <v>269.6097064983847</v>
       </c>
       <c r="M2" t="n">
-        <v>264.5839477933977</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
-        <v>261.34821032935</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O2" t="n">
         <v>264.993021668346</v>
@@ -8060,22 +8060,22 @@
         <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>180.3309306186853</v>
+        <v>178.291224186561</v>
       </c>
       <c r="L3" t="n">
-        <v>127.8064787429921</v>
+        <v>178.2892129380686</v>
       </c>
       <c r="M3" t="n">
-        <v>178.0347681206704</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
         <v>168.9501955242219</v>
       </c>
       <c r="O3" t="n">
-        <v>130.8188201934042</v>
+        <v>181.3015543884808</v>
       </c>
       <c r="P3" t="n">
-        <v>175.0047203318838</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
         <v>133.663080786811</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>202.1809638361346</v>
+        <v>255.9772818167572</v>
       </c>
       <c r="L5" t="n">
-        <v>267.3451747559029</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
-        <v>259.4212368511231</v>
+        <v>257.2476482458454</v>
       </c>
       <c r="N5" t="n">
-        <v>258.0880505088102</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O5" t="n">
-        <v>257.9995802262195</v>
+        <v>260.1731688314972</v>
       </c>
       <c r="P5" t="n">
-        <v>210.9873633211545</v>
+        <v>264.7836813017771</v>
       </c>
       <c r="Q5" t="n">
         <v>207.1020630664798</v>
@@ -8303,19 +8303,19 @@
         <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
-        <v>123.047446830095</v>
+        <v>168.2998526529178</v>
       </c>
       <c r="N6" t="n">
-        <v>111.7499598249992</v>
+        <v>165.5462778056219</v>
       </c>
       <c r="O6" t="n">
-        <v>169.9260245103767</v>
+        <v>178.4699366681766</v>
       </c>
       <c r="P6" t="n">
-        <v>173.3862381384502</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1624432744798</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>53.81818816105519</v>
       </c>
       <c r="K8" t="n">
-        <v>29.40848459605274</v>
+        <v>29.40848459605323</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>169.3425079555996</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>142.1686266863896</v>
+        <v>88.10454574181097</v>
       </c>
       <c r="P8" t="n">
-        <v>185.8047817831489</v>
+        <v>185.8047817831491</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8540,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>109.0465280602388</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>17.01358028918233</v>
       </c>
       <c r="P9" t="n">
-        <v>78.1002414942561</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>37.60103822001938</v>
+        <v>207.7342274853337</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>-2.444267011014745e-12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>-3.069544618483633e-12</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>-2.160049916710705e-12</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>99.26785128072183</v>
+        <v>121.3563835367927</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>9.000252501566052</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>38.13892827624159</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>45.69767948409199</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>38.13892827624255</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347509</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>187.3371490132302</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>138.4949402405065</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>138.8202214113354</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>55.74112246243956</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>16.89590291932146</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.5874149221281471</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610398</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>72.11969353038518</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>62.35543909864953</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>131.695219374394</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>68.49784254931298</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>111.7546635373304</v>
       </c>
       <c r="U46" t="n">
-        <v>46.45968844823096</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>770078.1889091859</v>
+        <v>770078.1889091861</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>733141.3233361411</v>
+        <v>733141.323336141</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>733141.323336141</v>
+        <v>733141.3233361411</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365053</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365052</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365052</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365053</v>
-      </c>
-      <c r="G2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365052</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365054</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365052</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>12004.91953871608</v>
       </c>
       <c r="D3" t="n">
-        <v>325486.3975543797</v>
+        <v>325486.3975543787</v>
       </c>
       <c r="E3" t="n">
-        <v>1098807.963756736</v>
+        <v>1098807.963756737</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13208.50450573661</v>
+        <v>13208.50450573663</v>
       </c>
       <c r="K3" t="n">
-        <v>852.8104317184398</v>
+        <v>852.8104317184726</v>
       </c>
       <c r="L3" t="n">
-        <v>29443.81509031392</v>
+        <v>29443.81509031384</v>
       </c>
       <c r="M3" t="n">
-        <v>249845.7249299114</v>
+        <v>249845.7249299115</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>389279.0943290079</v>
       </c>
       <c r="D4" t="n">
-        <v>306360.6503278901</v>
+        <v>306360.6503278903</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26432,34 +26432,34 @@
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719634</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719614</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719641</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171962</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719634</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719633</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171964</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719639</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>37661.87961689879</v>
       </c>
       <c r="D5" t="n">
-        <v>52100.52571241488</v>
+        <v>52100.52571241483</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>229382.0006018965</v>
+        <v>229382.0006018962</v>
       </c>
       <c r="C6" t="n">
-        <v>258939.6109000178</v>
+        <v>258939.610900018</v>
       </c>
       <c r="D6" t="n">
-        <v>13937.93078995659</v>
+        <v>13937.9307899571</v>
       </c>
       <c r="E6" t="n">
-        <v>-521710.6315602149</v>
+        <v>-521397.9902312942</v>
       </c>
       <c r="F6" t="n">
-        <v>577097.3321965216</v>
+        <v>577409.9735254431</v>
       </c>
       <c r="G6" t="n">
-        <v>577097.3321965216</v>
+        <v>577409.9735254426</v>
       </c>
       <c r="H6" t="n">
-        <v>577097.3321965217</v>
+        <v>577409.973525443</v>
       </c>
       <c r="I6" t="n">
-        <v>577097.332196522</v>
+        <v>577409.9735254431</v>
       </c>
       <c r="J6" t="n">
-        <v>563888.8276907851</v>
+        <v>564201.4690197062</v>
       </c>
       <c r="K6" t="n">
-        <v>576244.521764803</v>
+        <v>576557.1630937245</v>
       </c>
       <c r="L6" t="n">
-        <v>547653.5171062079</v>
+        <v>547966.1584351291</v>
       </c>
       <c r="M6" t="n">
-        <v>327251.6072666105</v>
+        <v>327564.2485955314</v>
       </c>
       <c r="N6" t="n">
-        <v>577097.3321965217</v>
+        <v>577409.9735254429</v>
       </c>
       <c r="O6" t="n">
-        <v>577097.3321965217</v>
+        <v>577409.9735254431</v>
       </c>
       <c r="P6" t="n">
-        <v>577097.3321965216</v>
+        <v>577409.9735254428</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>372.8820094075119</v>
+        <v>372.8820094075109</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D4" t="n">
-        <v>170.1331892653144</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26825,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26965,16 +26965,16 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>337.8607486883865</v>
+        <v>337.8607486883856</v>
       </c>
       <c r="E3" t="n">
-        <v>995.0934909341619</v>
+        <v>995.0934909341629</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>3.313583785546101</v>
       </c>
       <c r="D4" t="n">
-        <v>116.3368712846918</v>
+        <v>116.3368712846914</v>
       </c>
       <c r="E4" t="n">
         <v>1002.575098834334</v>
@@ -27032,16 +27032,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
         <v>50.48273419507655</v>
       </c>
       <c r="K4" t="n">
-        <v>3.313583785546143</v>
+        <v>3.313583785546371</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846918</v>
+        <v>116.3368712846914</v>
       </c>
       <c r="M4" t="n">
         <v>1002.575098834334</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27263,7 +27263,7 @@
         <v>3.313583785546101</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846918</v>
+        <v>116.3368712846914</v>
       </c>
       <c r="M4" t="n">
         <v>1002.575098834334</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>332.251107468404</v>
       </c>
       <c r="C2" t="n">
         <v>346.9910666903791</v>
       </c>
       <c r="D2" t="n">
-        <v>304.2003074256064</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27429,10 +27429,10 @@
         <v>93.57486856939362</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>156.4291245048363</v>
       </c>
       <c r="T2" t="n">
-        <v>172.208126091823</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
         <v>251.3382516189322</v>
@@ -27466,7 +27466,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>107.1623462603244</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>67.29218149826258</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>37.20960569321311</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,22 +27508,22 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
-        <v>120.2809871382089</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
         <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>175.4553912751407</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>182.3178529543487</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>201.2122489658431</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>161.307792924454</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.3492459868608</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>138.047096124824</v>
       </c>
       <c r="F4" t="n">
         <v>94.9383138278547</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>117.4667456208323</v>
       </c>
       <c r="H4" t="n">
         <v>161.8582038473137</v>
@@ -27560,7 +27560,7 @@
         <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839145</v>
+        <v>39.94242826331492</v>
       </c>
       <c r="K4" t="n">
         <v>17.44799951871617</v>
@@ -27587,7 +27587,7 @@
         <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
-        <v>214.906507669152</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
         <v>227.7682732010226</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>236.0402641415145</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,22 +27621,22 @@
         <v>311.4765737903849</v>
       </c>
       <c r="D5" t="n">
-        <v>329.3372390123815</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>328.1340520916391</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>359.492248864379</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>361.3656305466968</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>151.2518041370232</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>87.22896370465668</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
         <v>205.8118405263978</v>
@@ -27697,7 +27697,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>118.9121810076931</v>
       </c>
       <c r="D6" t="n">
         <v>93.64874758401612</v>
@@ -27706,13 +27706,13 @@
         <v>103.8487624747783</v>
       </c>
       <c r="F6" t="n">
-        <v>91.27289441276125</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>64.12413022611202</v>
       </c>
       <c r="I6" t="n">
         <v>86.80307722268739</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3891883261451</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>126.0356622013147</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>113.4505031180052</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>96.00916567729175</v>
       </c>
       <c r="E7" t="n">
-        <v>92.63764466594654</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.26752554218587</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
-        <v>169.119693879324</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
         <v>227.6757534850358</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>236.7428564763974</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>324.1229312460398</v>
+        <v>324.1229312460399</v>
       </c>
       <c r="I8" t="n">
-        <v>152.6847994490668</v>
+        <v>152.684799449067</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>174.8610794782105</v>
       </c>
       <c r="T8" t="n">
-        <v>216.5338757101358</v>
+        <v>216.5338757101359</v>
       </c>
       <c r="U8" t="n">
-        <v>81.09254179025032</v>
+        <v>251.2257310555647</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>247.4087645085579</v>
       </c>
       <c r="W8" t="n">
-        <v>275.7735204975469</v>
+        <v>179.107779452099</v>
       </c>
       <c r="X8" t="n">
-        <v>199.5979114131546</v>
+        <v>199.597911413155</v>
       </c>
       <c r="Y8" t="n">
-        <v>216.1047493907392</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>126.5728504277731</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>2.57530972300134</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>72.18242152704347</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>104.4893481542763</v>
       </c>
       <c r="I9" t="n">
-        <v>61.78225762642481</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.36049712271162</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>156.785479501566</v>
@@ -27988,7 +27988,7 @@
         <v>196.9319120283546</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8886157588888</v>
+        <v>55.7554264935748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.153263898606</v>
+        <v>157.1532638986073</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.2488347172667</v>
       </c>
       <c r="I10" t="n">
-        <v>135.2292669416837</v>
+        <v>135.2292669416838</v>
       </c>
       <c r="J10" t="n">
-        <v>45.81978032712819</v>
+        <v>45.81978032712832</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>147.0593845160293</v>
+        <v>147.0593845160294</v>
       </c>
       <c r="S10" t="n">
-        <v>212.2983224298542</v>
+        <v>212.2983224298543</v>
       </c>
       <c r="T10" t="n">
         <v>225.0725641098958</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.499023153397032</v>
+        <v>1.499023153397028</v>
       </c>
       <c r="H8" t="n">
-        <v>15.35187086972735</v>
+        <v>15.35187086972731</v>
       </c>
       <c r="I8" t="n">
-        <v>57.79109012133912</v>
+        <v>57.79109012133896</v>
       </c>
       <c r="J8" t="n">
-        <v>127.2277163656314</v>
+        <v>127.2277163656311</v>
       </c>
       <c r="K8" t="n">
-        <v>190.6813664489278</v>
+        <v>190.6813664489273</v>
       </c>
       <c r="L8" t="n">
-        <v>236.5570962797023</v>
+        <v>236.5570962797017</v>
       </c>
       <c r="M8" t="n">
-        <v>263.2153492839267</v>
+        <v>263.215349283926</v>
       </c>
       <c r="N8" t="n">
-        <v>267.4744488185161</v>
+        <v>267.4744488185153</v>
       </c>
       <c r="O8" t="n">
-        <v>252.5685373369243</v>
+        <v>252.5685373369236</v>
       </c>
       <c r="P8" t="n">
-        <v>215.561403237435</v>
+        <v>215.5614032374345</v>
       </c>
       <c r="Q8" t="n">
-        <v>161.8776365564038</v>
+        <v>161.8776365564034</v>
       </c>
       <c r="R8" t="n">
-        <v>94.16301315957637</v>
+        <v>94.16301315957612</v>
       </c>
       <c r="S8" t="n">
-        <v>34.15899010803489</v>
+        <v>34.1589901080348</v>
       </c>
       <c r="T8" t="n">
-        <v>6.561973853995509</v>
+        <v>6.561973853995492</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1199218522717625</v>
+        <v>0.1199218522717622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8020480957067236</v>
+        <v>0.8020480957067216</v>
       </c>
       <c r="H9" t="n">
-        <v>7.746096082220201</v>
+        <v>7.746096082220181</v>
       </c>
       <c r="I9" t="n">
-        <v>27.61437522499027</v>
+        <v>27.6143752249902</v>
       </c>
       <c r="J9" t="n">
-        <v>75.77595627025674</v>
+        <v>75.77595627025654</v>
       </c>
       <c r="K9" t="n">
-        <v>129.5131786826072</v>
+        <v>129.5131786826069</v>
       </c>
       <c r="L9" t="n">
-        <v>174.1464516577253</v>
+        <v>174.1464516577248</v>
       </c>
       <c r="M9" t="n">
-        <v>203.2206951270939</v>
+        <v>203.2206951270934</v>
       </c>
       <c r="N9" t="n">
-        <v>208.5993422250571</v>
+        <v>208.5993422250565</v>
       </c>
       <c r="O9" t="n">
-        <v>190.8276449465028</v>
+        <v>190.8276449465023</v>
       </c>
       <c r="P9" t="n">
-        <v>153.1560087319269</v>
+        <v>153.1560087319265</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.3807358660021</v>
+        <v>102.3807358660019</v>
       </c>
       <c r="R9" t="n">
-        <v>49.79733702993151</v>
+        <v>49.79733702993138</v>
       </c>
       <c r="S9" t="n">
-        <v>14.89769160227181</v>
+        <v>14.89769160227177</v>
       </c>
       <c r="T9" t="n">
-        <v>3.232816666467012</v>
+        <v>3.232816666467004</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05276632208596868</v>
+        <v>0.05276632208596855</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6724101808987918</v>
+        <v>0.6724101808987901</v>
       </c>
       <c r="H10" t="n">
-        <v>5.978337790172899</v>
+        <v>5.978337790172883</v>
       </c>
       <c r="I10" t="n">
-        <v>20.22120798557458</v>
+        <v>20.22120798557453</v>
       </c>
       <c r="J10" t="n">
-        <v>47.53939978954458</v>
+        <v>47.53939978954445</v>
       </c>
       <c r="K10" t="n">
-        <v>78.12183738078689</v>
+        <v>78.12183738078669</v>
       </c>
       <c r="L10" t="n">
-        <v>99.9690554401713</v>
+        <v>99.96905544017105</v>
       </c>
       <c r="M10" t="n">
-        <v>105.4033522657988</v>
+        <v>105.4033522657985</v>
       </c>
       <c r="N10" t="n">
-        <v>102.8970961369943</v>
+        <v>102.897096136994</v>
       </c>
       <c r="O10" t="n">
-        <v>95.04212266013108</v>
+        <v>95.04212266013084</v>
       </c>
       <c r="P10" t="n">
-        <v>81.32495496979567</v>
+        <v>81.32495496979546</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.30518342053429</v>
+        <v>56.30518342053414</v>
       </c>
       <c r="R10" t="n">
-        <v>30.23400686114021</v>
+        <v>30.23400686114013</v>
       </c>
       <c r="S10" t="n">
-        <v>11.71827560711803</v>
+        <v>11.718275607118</v>
       </c>
       <c r="T10" t="n">
-        <v>2.873025318385746</v>
+        <v>2.873025318385739</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03667691895811596</v>
+        <v>0.03667691895811587</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31852,13 +31852,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>604.7968300725072</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256867</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>545.3845241768652</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>463.959892919255</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.959892919255</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.959892919255</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256867</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>175.6052721551106</v>
+        <v>379.8551982710403</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551096</v>
       </c>
       <c r="L42" t="n">
-        <v>477.8500485393217</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,16 +34701,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>48.44302776295223</v>
       </c>
       <c r="M2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>48.44302776295223</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>50.48273419507654</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>48.44302776295223</v>
+      </c>
+      <c r="L3" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
-        <v>48.44302776295223</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="P3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>51.62272937534495</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="N5" t="n">
-        <v>53.79631798062264</v>
-      </c>
-      <c r="O5" t="n">
-        <v>51.62272937534497</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>45.25240582282281</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O6" t="n">
-        <v>45.25240582282281</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="P6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>115.2784270110189</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.790681309715012</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="M8" t="n">
-        <v>32.86911605665395</v>
+        <v>32.86911605665327</v>
       </c>
       <c r="N8" t="n">
-        <v>38.06138522192515</v>
+        <v>38.06138522192441</v>
       </c>
       <c r="O8" t="n">
-        <v>164.6389526016271</v>
+        <v>110.5748716570479</v>
       </c>
       <c r="P8" t="n">
-        <v>170.1331892653144</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="Q8" t="n">
-        <v>151.886937341859</v>
+        <v>151.8869373418586</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>75.02936494399889</v>
+        <v>75.02936494399869</v>
       </c>
       <c r="K9" t="n">
-        <v>170.1331892653144</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="L9" t="n">
-        <v>35.59207187785108</v>
+        <v>35.59207187785063</v>
       </c>
       <c r="M9" t="n">
-        <v>170.1331892653144</v>
+        <v>61.0866612050751</v>
       </c>
       <c r="N9" t="n">
-        <v>77.25763014172375</v>
+        <v>77.25763014172321</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23140050205836</v>
+        <v>65.24498079124018</v>
       </c>
       <c r="P9" t="n">
-        <v>97.28184281185278</v>
+        <v>19.18160131759629</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>170.1331892653141</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>55.85234555490403</v>
+        <v>55.85234555490383</v>
       </c>
       <c r="L10" t="n">
-        <v>127.5590807004874</v>
+        <v>127.5590807004872</v>
       </c>
       <c r="M10" t="n">
-        <v>144.9872292276394</v>
+        <v>144.9872292276391</v>
       </c>
       <c r="N10" t="n">
-        <v>147.0292685162229</v>
+        <v>147.0292685162226</v>
       </c>
       <c r="O10" t="n">
-        <v>119.6272505741708</v>
+        <v>119.6272505741705</v>
       </c>
       <c r="P10" t="n">
-        <v>78.60351423468916</v>
+        <v>78.60351423468894</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
@@ -35430,7 +35430,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,13 +35500,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902381</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>406.830144396991</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>332.6181808359217</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790292</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359217</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359217</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>37.76383318075158</v>
+        <v>242.0137592966813</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902938</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075059</v>
       </c>
       <c r="L42" t="n">
-        <v>339.2956687594475</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396408</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
